--- a/casestudy/memfs-1024/results.xlsx
+++ b/casestudy/memfs-1024/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franktip/git/mutation-testing-data/casestudy/memfs-1024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960CEB36-A21C-254F-AD27-CD68F00D16F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810D5299-047B-2E4B-8DA3-4D7E3DEB0621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="5" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
+    <workbookView xWindow="7360" yWindow="7400" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{BA8F4140-1AF3-1848-B3E0-7ADBCED5078A}"/>
   </bookViews>
   <sheets>
     <sheet name="bug" sheetId="6" r:id="rId1"/>
@@ -1235,7 +1235,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45260694-0BBD-5143-B71E-4CB7D6F62B75}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1392,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C430C8-EF7C-864F-9C13-90FBBD429C35}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
@@ -1489,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611F4CE5-1A94-D544-828F-3756B1B1292E}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1592,7 +1592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8478CE-4E42-ED49-86FC-D0F1E49FB7E9}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
@@ -1695,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAD8DAD-99CB-094E-8B83-51C6C4237597}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
